--- a/タイル/タイル検討.xlsx
+++ b/タイル/タイル検討.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68d79621a65643a0/Desktop/プログラム/カルカソンヌ/git_clone/Carcassonne/タイル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BB6B87CF-D5A8-41F5-A823-E1D8DB5781E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C9C637-8C3C-493A-B6FC-331A9D3AFDA1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BB6B87CF-D5A8-41F5-A823-E1D8DB5781E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FF4D674-9726-4F54-9DC2-D0C2011C0CE5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tile01" sheetId="2" r:id="rId1"/>
-    <sheet name="tile02" sheetId="3" r:id="rId2"/>
-    <sheet name="tile03" sheetId="4" r:id="rId3"/>
-    <sheet name="tile04" sheetId="5" r:id="rId4"/>
-    <sheet name="tile05" sheetId="6" r:id="rId5"/>
-    <sheet name="tile06" sheetId="7" r:id="rId6"/>
-    <sheet name="tile07" sheetId="8" r:id="rId7"/>
-    <sheet name="tile08" sheetId="9" r:id="rId8"/>
-    <sheet name="tile09" sheetId="10" r:id="rId9"/>
-    <sheet name="tile10" sheetId="11" r:id="rId10"/>
-    <sheet name="tile11" sheetId="12" r:id="rId11"/>
-    <sheet name="tile12" sheetId="13" r:id="rId12"/>
-    <sheet name="tile13" sheetId="14" r:id="rId13"/>
-    <sheet name="tile14" sheetId="15" r:id="rId14"/>
-    <sheet name="tile15" sheetId="16" r:id="rId15"/>
-    <sheet name="tile16" sheetId="17" r:id="rId16"/>
-    <sheet name="tile17" sheetId="18" r:id="rId17"/>
-    <sheet name="tile18" sheetId="19" r:id="rId18"/>
-    <sheet name="tile19" sheetId="20" r:id="rId19"/>
+    <sheet name="全体" sheetId="21" r:id="rId1"/>
+    <sheet name="tile01" sheetId="2" r:id="rId2"/>
+    <sheet name="tile02" sheetId="3" r:id="rId3"/>
+    <sheet name="tile03" sheetId="4" r:id="rId4"/>
+    <sheet name="tile04" sheetId="5" r:id="rId5"/>
+    <sheet name="tile05" sheetId="6" r:id="rId6"/>
+    <sheet name="tile06" sheetId="7" r:id="rId7"/>
+    <sheet name="tile07" sheetId="8" r:id="rId8"/>
+    <sheet name="tile08" sheetId="9" r:id="rId9"/>
+    <sheet name="tile09" sheetId="10" r:id="rId10"/>
+    <sheet name="tile10" sheetId="11" r:id="rId11"/>
+    <sheet name="tile11" sheetId="12" r:id="rId12"/>
+    <sheet name="tile12" sheetId="13" r:id="rId13"/>
+    <sheet name="tile13" sheetId="14" r:id="rId14"/>
+    <sheet name="tile14" sheetId="15" r:id="rId15"/>
+    <sheet name="tile15" sheetId="16" r:id="rId16"/>
+    <sheet name="tile16" sheetId="17" r:id="rId17"/>
+    <sheet name="tile17" sheetId="18" r:id="rId18"/>
+    <sheet name="tile18" sheetId="19" r:id="rId19"/>
+    <sheet name="tile19" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,6 +50,93 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>枚数</t>
+    <rPh sb="0" eb="2">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tile01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tile02</t>
+  </si>
+  <si>
+    <t>tile03</t>
+  </si>
+  <si>
+    <t>tile04</t>
+  </si>
+  <si>
+    <t>tile05</t>
+  </si>
+  <si>
+    <t>tile06</t>
+  </si>
+  <si>
+    <t>ダイヤ有枚数</t>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tile07</t>
+  </si>
+  <si>
+    <t>tile08</t>
+  </si>
+  <si>
+    <t>tile09</t>
+  </si>
+  <si>
+    <t>tile10</t>
+  </si>
+  <si>
+    <t>tile11</t>
+  </si>
+  <si>
+    <t>tile12</t>
+  </si>
+  <si>
+    <t>tile13</t>
+  </si>
+  <si>
+    <t>tile14</t>
+  </si>
+  <si>
+    <t>tile15</t>
+  </si>
+  <si>
+    <t>tile16</t>
+  </si>
+  <si>
+    <t>tile17</t>
+  </si>
+  <si>
+    <t>tile18</t>
+  </si>
+  <si>
+    <t>tile19</t>
+  </si>
+  <si>
+    <t>タイル種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -123,7 +211,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="221">
+  <dxfs count="114">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -134,7 +229,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -148,686 +243,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -883,6 +299,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -890,7 +313,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -904,14 +327,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -967,27 +383,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -995,28 +390,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1044,7 +418,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1058,7 +453,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1072,7 +474,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1086,7 +502,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1100,7 +530,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1114,7 +551,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1128,7 +579,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1142,7 +600,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1156,7 +628,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1170,7 +656,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1184,7 +677,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1198,7 +705,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1212,7 +726,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1226,7 +754,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1240,7 +782,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1254,7 +803,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1268,7 +831,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1282,7 +852,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1296,7 +880,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1310,7 +908,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1324,7 +929,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1338,7 +957,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1352,14 +978,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1373,294 +999,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1688,23 +1027,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123209</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10238</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1431119</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1147515</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>84129</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68743</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7">
+        <xdr:cNvPr id="29" name="グループ化 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A807131-AF26-453E-9E2C-7B1EFA49674A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E622F58-04D3-8AE8-68C6-7BBDF01144A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1051,1371 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7991687" y="0"/>
+          <a:off x="4507430" y="246647"/>
+          <a:ext cx="6023754" cy="3893055"/>
+          <a:chOff x="7151813" y="246647"/>
+          <a:chExt cx="6023754" cy="3893055"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302B816D-14CD-ED1D-37FA-629A7D5F9DF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect l="4082" t="37706" r="11187" b="30892"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7151813" y="246647"/>
+            <a:ext cx="6023754" cy="3893055"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A543C933-650D-9290-D618-EF5C52F32355}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7823154" y="1151306"/>
+            <a:ext cx="563307" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile01</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="テキスト ボックス 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F607646A-5C11-CA9F-18A6-B3A257D8FDC5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8719816" y="1151306"/>
+            <a:ext cx="568919" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile02</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D04204-82E7-9213-B43E-156DB2E625B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9539662" y="1151306"/>
+            <a:ext cx="568919" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile03</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2B315A-702E-2B32-B356-71C1A8BEFAD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10296008" y="1151306"/>
+            <a:ext cx="568919" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile04</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2732188B-6059-8636-06D2-D69E1A7F6B56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10976154" y="1151306"/>
+            <a:ext cx="568919" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile05</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B231AA50-E408-8732-B9B5-DE5C64AA9621}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11700750" y="1151306"/>
+            <a:ext cx="568919" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile06</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7681C53C-F461-0B69-996F-1DCD20B4B510}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8537168" y="1917994"/>
+            <a:ext cx="563307" cy="124252"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile07</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF99B523-70BB-AE13-E045-3598BF28BB77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9398171" y="1917994"/>
+            <a:ext cx="565885" cy="124252"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile08</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D12688F-E3EB-778B-933D-51B301F9ECDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10312092" y="1917994"/>
+            <a:ext cx="565884" cy="124252"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile09</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB71DEA7-644A-9C42-D1B8-C4BA47DEC552}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11134516" y="1917994"/>
+            <a:ext cx="563307" cy="124252"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile10</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743810B5-783A-92EC-7E01-95CDAA58C851}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11907324" y="1917994"/>
+            <a:ext cx="565884" cy="124252"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile11</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="テキスト ボックス 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E96DA3-74F5-9326-03AE-E9803B3024F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7597152" y="2810891"/>
+            <a:ext cx="565884" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile12</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71919019-7E77-4FAF-F7DF-41870F959A00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9445208" y="2810891"/>
+            <a:ext cx="565885" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile13</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0125620-2741-6D6E-C93F-4ADAFE455A68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11316784" y="2810891"/>
+            <a:ext cx="565884" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile14</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="テキスト ボックス 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4468861-98AC-53E7-6030-3638C3415294}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7361967" y="3833141"/>
+            <a:ext cx="565884" cy="124254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile15</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0C4B5D-A0DB-92A6-C4E2-8C6E3361028D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9404051" y="3833141"/>
+            <a:ext cx="565885" cy="124254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile16</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="テキスト ボックス 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A5F347-770B-632F-7AE0-B71DCF734D2E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10400287" y="3833141"/>
+            <a:ext cx="565884" cy="124254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile17</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E689B386-500C-C8EA-97F6-D49924F86104}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11546090" y="3833141"/>
+            <a:ext cx="565884" cy="124254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile18</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2F53D8-3BC4-2FC9-A17B-2FCD5514E16F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12360056" y="3833141"/>
+            <a:ext cx="565884" cy="124254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile19</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7AAF6A-FA77-D70D-7B87-288BAF535ADE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7690879" y="1930821"/>
+            <a:ext cx="568919" cy="122649"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile06</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキスト ボックス 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9608AFE8-E37A-A103-A013-1F04CB8792FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8424213" y="2810891"/>
+            <a:ext cx="565884" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile12</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB53FCDA-CD5A-CE2B-F900-06DFA31E37AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10373292" y="2810891"/>
+            <a:ext cx="565885" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile13</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="テキスト ボックス 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2612F1F-EF2A-264B-4BF3-85167BED8B03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12158278" y="2810891"/>
+            <a:ext cx="565884" cy="127394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile14</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="テキスト ボックス 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99B9182-451E-E036-E04C-89D42CF5F64F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8362210" y="3833141"/>
+            <a:ext cx="565884" cy="124254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>tile15</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1306184</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1131410</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC5FCDD-D2FE-45A3-8971-8A54888A49A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7871354" y="0"/>
           <a:ext cx="6028997" cy="3935993"/>
           <a:chOff x="7977156" y="0"/>
           <a:chExt cx="6020279" cy="3931574"/>
@@ -1720,10 +2423,10 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
+          <xdr:cNvPr id="8" name="図 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38302CE2-5999-4F86-AD30-7706628C104B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DF1A84-DB73-696D-5E71-9A73EEF7313C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1748,10 +2451,10 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B0A230-5B1F-F65D-C98C-FA4CF81AD111}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D02BD3E-A2A8-DE3C-B262-DE6B2FB1B575}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1759,7 +2462,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8433246" y="200526"/>
+            <a:off x="10890312" y="993384"/>
             <a:ext cx="1013772" cy="969211"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1803,22 +2506,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>138043</xdr:colOff>
+      <xdr:colOff>14834</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1187175</xdr:rowOff>
+      <xdr:rowOff>1171070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>289891</xdr:colOff>
+      <xdr:colOff>165532</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>773043</xdr:rowOff>
+      <xdr:rowOff>740833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F4F9D1-DD36-2479-6427-4EEE1296FE2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7986957E-5163-4DFF-B888-C5EF6BA0A494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +2529,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8006521" y="3975653"/>
+          <a:off x="7886188" y="3975653"/>
           <a:ext cx="3299240" cy="2374347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2034,7 +2737,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2062,8 +2765,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7853947" y="0"/>
-          <a:ext cx="6028997" cy="3935993"/>
+          <a:off x="7824107" y="0"/>
+          <a:ext cx="6011092" cy="3940369"/>
           <a:chOff x="7977156" y="0"/>
           <a:chExt cx="6020279" cy="3931574"/>
         </a:xfrm>
@@ -2384,7 +3087,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2734,7 +3437,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3084,7 +3787,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3434,7 +4137,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3784,7 +4487,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4134,7 +4837,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4484,7 +5187,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4834,7 +5537,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5184,7 +5887,357 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123209</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1431119</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1147515</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A807131-AF26-453E-9E2C-7B1EFA49674A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7972515" y="0"/>
+          <a:ext cx="6017493" cy="3934459"/>
+          <a:chOff x="7977156" y="0"/>
+          <a:chExt cx="6020279" cy="3931574"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38302CE2-5999-4F86-AD30-7706628C104B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect l="4082" t="37706" r="11187" b="30892"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7977156" y="0"/>
+            <a:ext cx="6020279" cy="3931574"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B0A230-5B1F-F65D-C98C-FA4CF81AD111}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8433246" y="200526"/>
+            <a:ext cx="1013772" cy="969211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138043</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1187175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>773043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F4F9D1-DD36-2479-6427-4EEE1296FE2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8006521" y="3975653"/>
+          <a:ext cx="3299240" cy="2374347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>教会　　 　→　赤</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>道　　　　  →　水色</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>町　　　　　→　橙色</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>草むら　　 →　草色</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>4:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>交差点　　→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> 黄色</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>境界　　　→ 黒色</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5212,8 +6265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7853947" y="0"/>
-          <a:ext cx="6028997" cy="3935993"/>
+          <a:off x="7821341" y="0"/>
+          <a:ext cx="6009433" cy="3938710"/>
           <a:chOff x="7977156" y="0"/>
           <a:chExt cx="6020279" cy="3931574"/>
         </a:xfrm>
@@ -5534,7 +6587,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5884,7 +6937,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6234,7 +7287,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6584,7 +7637,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6934,7 +7987,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6962,8 +8015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7826744" y="0"/>
-          <a:ext cx="6028997" cy="3935993"/>
+          <a:off x="7825704" y="0"/>
+          <a:ext cx="6028373" cy="3920602"/>
           <a:chOff x="7977156" y="0"/>
           <a:chExt cx="6020279" cy="3931574"/>
         </a:xfrm>
@@ -7284,7 +8337,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7634,7 +8687,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7777,356 +8830,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7836175" y="3975653"/>
-          <a:ext cx="3299240" cy="2374347"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>0:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>教会　　 　→　赤</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>道　　　　  →　水色</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>町　　　　　→　橙色</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>草むら　　 →　草色</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-            <a:effectLst/>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>4:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>交差点　　→</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> 黄色</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>5:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>境界　　　→ 黒色</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1306184</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1131410</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC5FCDD-D2FE-45A3-8971-8A54888A49A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7871354" y="0"/>
-          <a:ext cx="6028997" cy="3935993"/>
-          <a:chOff x="7977156" y="0"/>
-          <a:chExt cx="6020279" cy="3931574"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="図 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DF1A84-DB73-696D-5E71-9A73EEF7313C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect l="4082" t="37706" r="11187" b="30892"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7977156" y="0"/>
-            <a:ext cx="6020279" cy="3931574"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D02BD3E-A2A8-DE3C-B262-DE6B2FB1B575}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10890312" y="993384"/>
-            <a:ext cx="1013772" cy="969211"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14834</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1171070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165532</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>740833</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7986957E-5163-4DFF-B888-C5EF6BA0A494}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7886188" y="3975653"/>
           <a:ext cx="3299240" cy="2374347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8596,12 +9299,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF6AD9A-E377-47BD-B58C-6BDC8EFB93DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3AE585-FB28-4ABA-8CE7-1C10DE08338F}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6070859E-F246-4493-AFC5-33584904F3BE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="46" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:E5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="48" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="110" customHeight="1"/>
   <cols>
@@ -8610,19 +9553,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="110" customHeight="1">
       <c r="A1" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="110" customHeight="1">
@@ -8650,13 +9593,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="110" customHeight="1">
@@ -8696,22 +9639,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8720,11 +9663,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE9705E-AFDB-4BEF-83B8-FA95A2C105DA}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="57" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="56" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -8821,22 +9764,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8845,11 +9788,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A76900-AE2A-492B-A74B-289AE0F8884C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="57" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="57" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -8946,22 +9889,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8970,7 +9913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC63635-E01D-44D5-8330-A5BE25D56318}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9071,22 +10014,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9095,7 +10038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF4DAB4-5394-4A44-BF47-657E6E6B6372}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9196,22 +10139,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9220,7 +10163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF3F074-0BE1-4F9B-BC90-1E22FAAB80E1}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9321,22 +10264,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9345,7 +10288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB81710D-1F3D-44DB-8691-899DA3756D1B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9446,22 +10389,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9470,7 +10413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85D6FEC-BECA-4A1F-9BCC-5B92F4A38231}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9571,22 +10514,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9595,7 +10538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C968C61-3BD1-4A72-AB63-B47FAFF2BA55}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9696,22 +10639,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9720,7 +10663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5AB6C5-027F-4AC5-A9F9-AF66137E24E2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9821,22 +10764,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9845,12 +10788,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9987716-470A-40E0-B700-AE84C7A40B95}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF6AD9A-E377-47BD-B58C-6BDC8EFB93DB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" zoomScale="36" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="110" customHeight="1"/>
@@ -9866,7 +10809,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
         <v>3</v>
@@ -9883,7 +10826,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -9894,19 +10837,19 @@
     </row>
     <row r="3" spans="1:5" ht="110" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="110" customHeight="1">
@@ -9946,23 +10889,23 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="126" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="5" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9970,7 +10913,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9987716-470A-40E0-B700-AE84C7A40B95}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="41" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="110" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="20.58203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="110" customHeight="1">
+      <c r="A1" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="110" customHeight="1">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="110" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="110" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="110" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:E5">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788E23ED-5121-469D-BC58-F9F425B3FB12}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10071,22 +11139,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10095,7 +11163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E6F415-0BAB-4881-BD1F-A97AFA0E6EF5}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10196,22 +11264,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10220,7 +11288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383ABA9B-A673-4B9F-A4D4-950934A13B3E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10321,22 +11389,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10345,7 +11413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91736853-FD5D-4F9C-8B8D-A0D1EF451445}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10444,22 +11512,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10468,11 +11536,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DBCBFE-8899-4BF7-BFFC-9A0852C4AED6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="43" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="71" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -10569,22 +11637,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10593,7 +11661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5E979-E12D-4D72-8D6D-B5B0263341B2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10694,22 +11762,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10718,7 +11786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762AC9B9-AAD3-43C2-BDD3-84BC8D319B1D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10819,145 +11887,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6070859E-F246-4493-AFC5-33584904F3BE}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="48" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="110" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="20.58203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="110" customHeight="1">
-      <c r="A1" s="1">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="110" customHeight="1">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="110" customHeight="1">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="110" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="110" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:E5">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
